--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_24.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_24.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yuta Ito</t>
+          <t>Asuka Kimura</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
